--- a/basic_introduction.xlsx
+++ b/basic_introduction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Number Format" sheetId="1" state="visible" r:id="rId2"/>
@@ -203,11 +203,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
@@ -351,7 +351,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -407,11 +407,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.49"/>

--- a/basic_introduction.xlsx
+++ b/basic_introduction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Number Format" sheetId="1" state="visible" r:id="rId2"/>
@@ -203,11 +203,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
@@ -351,7 +351,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -407,11 +407,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.49"/>
@@ -468,10 +468,6 @@
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">SUM(B4:E4)</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -489,10 +485,6 @@
       <c r="E5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">SUM(B5:E5)</f>
-        <v>26</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -510,10 +502,6 @@
       <c r="E6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">SUM(B6:E6)</f>
-        <v>13</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -531,10 +519,6 @@
       <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">SUM(B7:E7)</f>
-        <v>14</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -552,10 +536,6 @@
       <c r="E8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">SUM(B8:E8)</f>
-        <v>21</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -572,10 +552,6 @@
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">SUM(B9:E9)</f>
-        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
